--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgal.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N2">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P2">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q2">
-        <v>0.141121458975</v>
+        <v>0.2779824169055555</v>
       </c>
       <c r="R2">
-        <v>1.270093130775</v>
+        <v>2.50184175215</v>
       </c>
       <c r="S2">
-        <v>7.876397960838947E-05</v>
+        <v>0.0001335674864549874</v>
       </c>
       <c r="T2">
-        <v>7.876397960838949E-05</v>
+        <v>0.0001335674864549874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P3">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q3">
-        <v>0.05181465210000001</v>
+        <v>0.02847617093244445</v>
       </c>
       <c r="R3">
-        <v>0.4663318689000001</v>
+        <v>0.256285538392</v>
       </c>
       <c r="S3">
-        <v>2.891926026744931E-05</v>
+        <v>1.368248617178336E-05</v>
       </c>
       <c r="T3">
-        <v>2.891926026744931E-05</v>
+        <v>1.368248617178335E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N4">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P4">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q4">
-        <v>34.099061043825</v>
+        <v>19.356184272178</v>
       </c>
       <c r="R4">
-        <v>306.8915493944251</v>
+        <v>174.205658449602</v>
       </c>
       <c r="S4">
-        <v>0.0190316750423963</v>
+        <v>0.009300433133052259</v>
       </c>
       <c r="T4">
-        <v>0.0190316750423963</v>
+        <v>0.009300433133052257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N5">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O5">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P5">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q5">
-        <v>0.23019350535</v>
+        <v>0.004857073138666667</v>
       </c>
       <c r="R5">
-        <v>2.07174154815</v>
+        <v>0.043713658248</v>
       </c>
       <c r="S5">
-        <v>0.0001284776723048409</v>
+        <v>2.3337700919413E-06</v>
       </c>
       <c r="T5">
-        <v>0.0001284776723048409</v>
+        <v>2.333770091941299E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N6">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O6">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P6">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q6">
-        <v>50.63931823920002</v>
+        <v>35.60629442190889</v>
       </c>
       <c r="R6">
-        <v>455.7538641528001</v>
+        <v>320.45664979718</v>
       </c>
       <c r="S6">
-        <v>0.02826327234812444</v>
+        <v>0.01710843189598717</v>
       </c>
       <c r="T6">
-        <v>0.02826327234812444</v>
+        <v>0.01710843189598717</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N7">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P7">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q7">
-        <v>21.580476643725</v>
+        <v>1.240057053770889</v>
       </c>
       <c r="R7">
-        <v>194.224289793525</v>
+        <v>11.160513483938</v>
       </c>
       <c r="S7">
-        <v>0.01204468997593625</v>
+        <v>0.0005958337422083352</v>
       </c>
       <c r="T7">
-        <v>0.01204468997593625</v>
+        <v>0.0005958337422083352</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N8">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P8">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q8">
-        <v>0.04314804465455556</v>
+        <v>0.1546523001472222</v>
       </c>
       <c r="R8">
-        <v>0.388332401891</v>
+        <v>1.391870701325</v>
       </c>
       <c r="S8">
-        <v>2.408217526942764E-05</v>
+        <v>7.430872511682923E-05</v>
       </c>
       <c r="T8">
-        <v>2.408217526942764E-05</v>
+        <v>7.430872511682921E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P9">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q9">
         <v>0.01584238810177778</v>
@@ -1013,10 +1013,10 @@
         <v>0.142581492916</v>
       </c>
       <c r="S9">
-        <v>8.842096322272782E-06</v>
+        <v>7.612092814193271E-06</v>
       </c>
       <c r="T9">
-        <v>8.842096322272786E-06</v>
+        <v>7.612092814193268E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N10">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P10">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q10">
-        <v>10.42582622999967</v>
+        <v>10.768589082319</v>
       </c>
       <c r="R10">
-        <v>93.83243606999702</v>
+        <v>96.917301740871</v>
       </c>
       <c r="S10">
-        <v>0.005818956029400035</v>
+        <v>0.005174188326021504</v>
       </c>
       <c r="T10">
-        <v>0.005818956029400037</v>
+        <v>0.005174188326021503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N11">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O11">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P11">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q11">
-        <v>0.07038192292066668</v>
+        <v>0.002702176422666667</v>
       </c>
       <c r="R11">
-        <v>0.633437306286</v>
+        <v>0.024319587804</v>
       </c>
       <c r="S11">
-        <v>3.928219267280026E-05</v>
+        <v>1.298365978507698E-06</v>
       </c>
       <c r="T11">
-        <v>3.928219267280028E-05</v>
+        <v>1.298365978507697E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N12">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O12">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P12">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q12">
-        <v>15.48302845315911</v>
+        <v>19.80914977776556</v>
       </c>
       <c r="R12">
-        <v>139.347256078432</v>
+        <v>178.28234799989</v>
       </c>
       <c r="S12">
-        <v>0.008641527278829908</v>
+        <v>0.009518078064359902</v>
       </c>
       <c r="T12">
-        <v>0.008641527278829912</v>
+        <v>0.0095180780643599</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N13">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P13">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q13">
-        <v>6.598254983000112</v>
+        <v>0.6898913888665555</v>
       </c>
       <c r="R13">
-        <v>59.384294847001</v>
+        <v>6.209022499799</v>
       </c>
       <c r="S13">
-        <v>0.003682677494313901</v>
+        <v>0.0003314852060198938</v>
       </c>
       <c r="T13">
-        <v>0.003682677494313902</v>
+        <v>0.0003314852060198938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N14">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P14">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q14">
-        <v>0.07792135367022222</v>
+        <v>0.5612978584777778</v>
       </c>
       <c r="R14">
-        <v>0.701292183032</v>
+        <v>5.0516807263</v>
       </c>
       <c r="S14">
-        <v>4.34901676620757E-05</v>
+        <v>0.0002696974324635627</v>
       </c>
       <c r="T14">
-        <v>4.349016766207571E-05</v>
+        <v>0.0002696974324635627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.172156</v>
       </c>
       <c r="O15">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P15">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q15">
-        <v>0.02860987875911111</v>
+        <v>0.05749865023822223</v>
       </c>
       <c r="R15">
-        <v>0.257488908832</v>
+        <v>0.5174878521439999</v>
       </c>
       <c r="S15">
-        <v>1.59680031906439E-05</v>
+        <v>2.762746749368348E-05</v>
       </c>
       <c r="T15">
-        <v>1.596800319064391E-05</v>
+        <v>2.762746749368347E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N16">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P16">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q16">
-        <v>18.82807203608267</v>
+        <v>39.083712204596</v>
       </c>
       <c r="R16">
-        <v>169.452648324744</v>
+        <v>351.753409841364</v>
       </c>
       <c r="S16">
-        <v>0.01050849312844771</v>
+        <v>0.01877929280063639</v>
       </c>
       <c r="T16">
-        <v>0.01050849312844772</v>
+        <v>0.01877929280063638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N17">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O17">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P17">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q17">
-        <v>0.1271032036746667</v>
+        <v>0.009807328037333333</v>
       </c>
       <c r="R17">
-        <v>1.143928833072</v>
+        <v>0.088265952336</v>
       </c>
       <c r="S17">
-        <v>7.093998471321019E-05</v>
+        <v>4.712312992196157E-06</v>
       </c>
       <c r="T17">
-        <v>7.093998471321022E-05</v>
+        <v>4.712312992196156E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N18">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O18">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P18">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q18">
-        <v>27.96090867254045</v>
+        <v>71.89568689208444</v>
       </c>
       <c r="R18">
-        <v>251.6481780528641</v>
+        <v>647.06118202876</v>
       </c>
       <c r="S18">
-        <v>0.01560579416136961</v>
+        <v>0.0345450848727353</v>
       </c>
       <c r="T18">
-        <v>0.01560579416136962</v>
+        <v>0.03454508487273529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N19">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P19">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q19">
-        <v>11.91583452397245</v>
+        <v>2.503904298768445</v>
       </c>
       <c r="R19">
-        <v>107.242510715752</v>
+        <v>22.535138688916</v>
       </c>
       <c r="S19">
-        <v>0.006650572877292696</v>
+        <v>0.001203098409004642</v>
       </c>
       <c r="T19">
-        <v>0.006650572877292698</v>
+        <v>0.001203098409004641</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N20">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P20">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q20">
-        <v>0.02731075531333333</v>
+        <v>0.02512403605833333</v>
       </c>
       <c r="R20">
-        <v>0.24579679782</v>
+        <v>0.226116324525</v>
       </c>
       <c r="S20">
-        <v>1.524292471331503E-05</v>
+        <v>1.207182232341036E-05</v>
       </c>
       <c r="T20">
-        <v>1.524292471331504E-05</v>
+        <v>1.207182232341036E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.172156</v>
       </c>
       <c r="O21">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P21">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q21">
-        <v>0.01002751314666667</v>
+        <v>0.002573674814666667</v>
       </c>
       <c r="R21">
-        <v>0.09024761832</v>
+        <v>0.023163073332</v>
       </c>
       <c r="S21">
-        <v>5.596645944163792E-06</v>
+        <v>1.236622372645693E-06</v>
       </c>
       <c r="T21">
-        <v>5.596645944163793E-06</v>
+        <v>1.236622372645693E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N22">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P22">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q22">
-        <v>6.599075146660001</v>
+        <v>1.749410905263</v>
       </c>
       <c r="R22">
-        <v>59.39167631994001</v>
+        <v>15.744698147367</v>
       </c>
       <c r="S22">
-        <v>0.003683135251442068</v>
+        <v>0.0008405726520188879</v>
       </c>
       <c r="T22">
-        <v>0.003683135251442069</v>
+        <v>0.0008405726520188878</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N23">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O23">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P23">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q23">
-        <v>0.04454856508</v>
+        <v>0.000438982012</v>
       </c>
       <c r="R23">
-        <v>0.40093708572</v>
+        <v>0.003950838108</v>
       </c>
       <c r="S23">
-        <v>2.486384634221878E-05</v>
+        <v>2.109260168124731E-07</v>
       </c>
       <c r="T23">
-        <v>2.486384634221879E-05</v>
+        <v>2.10926016812473E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N24">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O24">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P24">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q24">
-        <v>9.800054787626669</v>
+        <v>3.218094996503333</v>
       </c>
       <c r="R24">
-        <v>88.20049308864002</v>
+        <v>28.96285496853</v>
       </c>
       <c r="S24">
-        <v>0.005469694836349934</v>
+        <v>0.0015462591650261</v>
       </c>
       <c r="T24">
-        <v>0.005469694836349935</v>
+        <v>0.0015462591650261</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N25">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P25">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q25">
-        <v>4.176396144446668</v>
+        <v>0.1120762905803333</v>
       </c>
       <c r="R25">
-        <v>37.58756530002</v>
+        <v>1.008686615223</v>
       </c>
       <c r="S25">
-        <v>0.00233096782833026</v>
+        <v>5.38514219375964E-05</v>
       </c>
       <c r="T25">
-        <v>0.002330967828330261</v>
+        <v>5.38514219375964E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N26">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P26">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q26">
-        <v>1.979862005014444</v>
+        <v>9.019314018072222</v>
       </c>
       <c r="R26">
-        <v>17.81875804513</v>
+        <v>81.17382616264999</v>
       </c>
       <c r="S26">
-        <v>0.00110501841267109</v>
+        <v>0.004333680944113208</v>
       </c>
       <c r="T26">
-        <v>0.00110501841267109</v>
+        <v>0.004333680944113207</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.172156</v>
       </c>
       <c r="O27">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P27">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q27">
-        <v>0.7269331095422223</v>
+        <v>0.9239272416257778</v>
       </c>
       <c r="R27">
-        <v>6.54239798588</v>
+        <v>8.315345174632</v>
       </c>
       <c r="S27">
-        <v>0.0004057224537820984</v>
+        <v>0.0004439368529311418</v>
       </c>
       <c r="T27">
-        <v>0.0004057224537820986</v>
+        <v>0.0004439368529311416</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N28">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P28">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q28">
-        <v>478.3924135825234</v>
+        <v>628.0235494238379</v>
       </c>
       <c r="R28">
-        <v>4305.53172224271</v>
+        <v>5652.211944814541</v>
       </c>
       <c r="S28">
-        <v>0.2670046822212716</v>
+        <v>0.3017583912855215</v>
       </c>
       <c r="T28">
-        <v>0.2670046822212717</v>
+        <v>0.3017583912855214</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N29">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O29">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P29">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q29">
-        <v>3.229497330553333</v>
+        <v>0.1575907869786667</v>
       </c>
       <c r="R29">
-        <v>29.06547597498</v>
+        <v>1.418317082808</v>
       </c>
       <c r="S29">
-        <v>0.001802476134647338</v>
+        <v>7.572063564133719E-05</v>
       </c>
       <c r="T29">
-        <v>0.001802476134647339</v>
+        <v>7.572063564133717E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N30">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O30">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P30">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q30">
-        <v>710.4437756655291</v>
+        <v>1155.268574127976</v>
       </c>
       <c r="R30">
-        <v>6393.993980989761</v>
+        <v>10397.41716715178</v>
       </c>
       <c r="S30">
-        <v>0.3965192782576031</v>
+        <v>0.5550938125670606</v>
       </c>
       <c r="T30">
-        <v>0.3965192782576032</v>
+        <v>0.5550938125670606</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N31">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P31">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q31">
-        <v>302.7630671291589</v>
+        <v>40.23442954697755</v>
       </c>
       <c r="R31">
-        <v>2724.86760416243</v>
+        <v>362.109865922798</v>
       </c>
       <c r="S31">
-        <v>0.1689808496789921</v>
+        <v>0.01933219979652845</v>
       </c>
       <c r="T31">
-        <v>0.1689808496789921</v>
+        <v>0.01933219979652845</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M32">
-        <v>0.1562936666666667</v>
+        <v>0.5601916666666666</v>
       </c>
       <c r="N32">
-        <v>0.468881</v>
+        <v>1.680575</v>
       </c>
       <c r="O32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457545</v>
       </c>
       <c r="P32">
-        <v>0.001322080137978314</v>
+        <v>0.004918836886457544</v>
       </c>
       <c r="Q32">
-        <v>0.09940798178888889</v>
+        <v>0.1987776640777778</v>
       </c>
       <c r="R32">
-        <v>0.8946718361</v>
+        <v>1.7889989767</v>
       </c>
       <c r="S32">
-        <v>5.548247805401628E-05</v>
+        <v>9.551047598554785E-05</v>
       </c>
       <c r="T32">
-        <v>5.54824780540163E-05</v>
+        <v>9.551047598554784E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2489,22 +2489,22 @@
         <v>0.172156</v>
       </c>
       <c r="O33">
-        <v>0.0004854196016340918</v>
+        <v>0.000503879495425664</v>
       </c>
       <c r="P33">
-        <v>0.0004854196016340918</v>
+        <v>0.0005038794954256639</v>
       </c>
       <c r="Q33">
-        <v>0.03649898484444445</v>
+        <v>0.02036253516622222</v>
       </c>
       <c r="R33">
-        <v>0.3284908636</v>
+        <v>0.183262816496</v>
       </c>
       <c r="S33">
-        <v>2.037114212746353E-05</v>
+        <v>9.78397364221649E-06</v>
       </c>
       <c r="T33">
-        <v>2.037114212746353E-05</v>
+        <v>9.783973642216489E-06</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>37.765109</v>
+        <v>39.006687</v>
       </c>
       <c r="N34">
-        <v>113.295327</v>
+        <v>117.020061</v>
       </c>
       <c r="O34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="P34">
-        <v>0.3194531268114046</v>
+        <v>0.3425033649211204</v>
       </c>
       <c r="Q34">
-        <v>24.01986816096667</v>
+        <v>13.841080806164</v>
       </c>
       <c r="R34">
-        <v>216.1788134487001</v>
+        <v>124.569727255476</v>
       </c>
       <c r="S34">
-        <v>0.01340618513844685</v>
+        <v>0.006650486723870012</v>
       </c>
       <c r="T34">
-        <v>0.01340618513844686</v>
+        <v>0.006650486723870011</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M35">
-        <v>0.254942</v>
+        <v>0.009788</v>
       </c>
       <c r="N35">
-        <v>0.764826</v>
+        <v>0.029364</v>
       </c>
       <c r="O35">
-        <v>0.002156541347611445</v>
+        <v>8.594482622551172E-05</v>
       </c>
       <c r="P35">
-        <v>0.002156541347611445</v>
+        <v>8.59448262255117E-05</v>
       </c>
       <c r="Q35">
-        <v>0.1621516100666667</v>
+        <v>0.003473160869333333</v>
       </c>
       <c r="R35">
-        <v>1.4593644906</v>
+        <v>0.031258447824</v>
       </c>
       <c r="S35">
-        <v>9.050151693103592E-05</v>
+        <v>1.668815504716914E-06</v>
       </c>
       <c r="T35">
-        <v>9.050151693103595E-05</v>
+        <v>1.668815504716914E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>56.08363733333334</v>
+        <v>71.75399666666667</v>
       </c>
       <c r="N36">
-        <v>168.250912</v>
+        <v>215.26199</v>
       </c>
       <c r="O36">
-        <v>0.4744086217013211</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="P36">
-        <v>0.4744086217013212</v>
+        <v>0.6300454407951178</v>
       </c>
       <c r="Q36">
-        <v>35.67106279857779</v>
+        <v>25.46109250520444</v>
       </c>
       <c r="R36">
-        <v>321.0395651872001</v>
+        <v>229.14983254684</v>
       </c>
       <c r="S36">
-        <v>0.01990905481904412</v>
+        <v>0.01223377422994882</v>
       </c>
       <c r="T36">
-        <v>0.01990905481904412</v>
+        <v>0.01223377422994882</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.90063033333334</v>
+        <v>2.498969666666667</v>
       </c>
       <c r="N37">
-        <v>71.701891</v>
+        <v>7.496909</v>
       </c>
       <c r="O37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="P37">
-        <v>0.2021742104000504</v>
+        <v>0.021942533075653</v>
       </c>
       <c r="Q37">
-        <v>15.20159757967778</v>
+        <v>0.8867310645604445</v>
       </c>
       <c r="R37">
-        <v>136.8143782171</v>
+        <v>7.980579581044</v>
       </c>
       <c r="S37">
-        <v>0.00848445254518517</v>
+        <v>0.0004260644999540857</v>
       </c>
       <c r="T37">
-        <v>0.008484452545185173</v>
+        <v>0.0004260644999540857</v>
       </c>
     </row>
   </sheetData>
